--- a/Data/EC/NIT-9011068698.xlsx
+++ b/Data/EC/NIT-9011068698.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9106D0A5-E092-4265-894C-B617AF3B2BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BE583D-701C-47C5-90B9-F7DE65C180FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CFD6A6B8-9ABA-4666-8B25-31915DEF18A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC561AA2-4487-407A-BEE4-2707D32E2248}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,19 +65,46 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1100334373</t>
+  </si>
+  <si>
+    <t>EDUARDO SANEZ ANGEL</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>73190652</t>
+  </si>
+  <si>
+    <t>JOSE LUIS BLANCO CABARCAS</t>
+  </si>
+  <si>
+    <t>1047432610</t>
+  </si>
+  <si>
+    <t>EDWIN RAFAEL MUÑOZ DE ANGEL</t>
+  </si>
+  <si>
     <t>1052981975</t>
   </si>
   <si>
     <t>FRANKY ALI RIOS MUÑOZ</t>
   </si>
   <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1100334373</t>
-  </si>
-  <si>
-    <t>EDUARDO SANEZ ANGEL</t>
+    <t>1052992439</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL JIMENEZ MARQUEZ</t>
+  </si>
+  <si>
+    <t>1052968659</t>
+  </si>
+  <si>
+    <t>DIONISIO JOSE RIOS MUÑOZ</t>
   </si>
   <si>
     <t>1052960660</t>
@@ -86,55 +113,28 @@
     <t>RAFAEL OVIDIO RIOS MUÑOZ</t>
   </si>
   <si>
+    <t>1052946538</t>
+  </si>
+  <si>
+    <t>EVERTO MANUEL DE LAS OSSA ATENCIA</t>
+  </si>
+  <si>
+    <t>1101445961</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS TORRES ZUÑIGA</t>
+  </si>
+  <si>
     <t>1052956555</t>
   </si>
   <si>
     <t>JUAN FRANCISCO MEZA LOPEZ</t>
   </si>
   <si>
-    <t>1047432610</t>
-  </si>
-  <si>
-    <t>EDWIN RAFAEL MUÑOZ DE ANGEL</t>
-  </si>
-  <si>
-    <t>1052946538</t>
-  </si>
-  <si>
-    <t>EVERTO MANUEL DE LAS OSSA ATENCIA</t>
-  </si>
-  <si>
     <t>1103220109</t>
   </si>
   <si>
     <t>DIEGO ARMANDO WILCHEZ NOVOA</t>
-  </si>
-  <si>
-    <t>1101445961</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS TORRES ZUÑIGA</t>
-  </si>
-  <si>
-    <t>73190652</t>
-  </si>
-  <si>
-    <t>JOSE LUIS BLANCO CABARCAS</t>
-  </si>
-  <si>
-    <t>1052992439</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL JIMENEZ MARQUEZ</t>
-  </si>
-  <si>
-    <t>1052968659</t>
-  </si>
-  <si>
-    <t>DIONISIO JOSE RIOS MUÑOZ</t>
-  </si>
-  <si>
-    <t>1711</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -178,7 +178,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831358CA-FB6E-87D3-5D8B-7C87C9853022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83552552-A7C9-9CDE-A7A5-93C7949BF286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,28 +899,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12858862-3D23-4C05-B722-BE20900E0C8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA88458-A1AB-403C-B013-3DF3C0173364}">
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -933,7 +933,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -944,7 +944,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -955,7 +955,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -966,8 +966,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
@@ -982,8 +982,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -998,8 +998,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
@@ -1014,8 +1014,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1086,18 +1086,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>29509</v>
@@ -1109,15 +1109,15 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
@@ -1132,18 +1132,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
         <v>29509</v>
@@ -1155,15 +1155,15 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
@@ -1178,18 +1178,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
         <v>29509</v>
@@ -1201,15 +1201,15 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
@@ -1224,38 +1224,38 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
@@ -1270,18 +1270,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1293,15 +1293,15 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
@@ -1316,18 +1316,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1339,18 +1339,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
@@ -1362,18 +1362,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
@@ -1385,18 +1385,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
@@ -1408,18 +1408,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
@@ -1431,18 +1431,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
         <v>29509</v>
@@ -1454,18 +1454,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
@@ -1477,18 +1477,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1500,18 +1500,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1523,18 +1523,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
@@ -1546,30 +1546,30 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F37" s="24">
         <v>29509</v>
       </c>
       <c r="G37" s="24">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="26"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="32" t="s">
         <v>42</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="32" t="s">
         <v>41</v>
       </c>

--- a/Data/EC/NIT-9011068698.xlsx
+++ b/Data/EC/NIT-9011068698.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BE583D-701C-47C5-90B9-F7DE65C180FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBA82F5-86E8-4D17-A926-4DD6513CA332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC561AA2-4487-407A-BEE4-2707D32E2248}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E378B403-4600-439B-9230-99881AF16A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,70 +71,70 @@
     <t>EDUARDO SANEZ ANGEL</t>
   </si>
   <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>73190652</t>
+  </si>
+  <si>
+    <t>JOSE LUIS BLANCO CABARCAS</t>
+  </si>
+  <si>
+    <t>1047432610</t>
+  </si>
+  <si>
+    <t>EDWIN RAFAEL MUÑOZ DE ANGEL</t>
+  </si>
+  <si>
+    <t>1052981975</t>
+  </si>
+  <si>
+    <t>FRANKY ALI RIOS MUÑOZ</t>
+  </si>
+  <si>
+    <t>1052992439</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL JIMENEZ MARQUEZ</t>
+  </si>
+  <si>
+    <t>1052968659</t>
+  </si>
+  <si>
+    <t>DIONISIO JOSE RIOS MUÑOZ</t>
+  </si>
+  <si>
+    <t>1052960660</t>
+  </si>
+  <si>
+    <t>RAFAEL OVIDIO RIOS MUÑOZ</t>
+  </si>
+  <si>
+    <t>1052946538</t>
+  </si>
+  <si>
+    <t>EVERTO MANUEL DE LAS OSSA ATENCIA</t>
+  </si>
+  <si>
+    <t>1101445961</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS TORRES ZUÑIGA</t>
+  </si>
+  <si>
+    <t>1052956555</t>
+  </si>
+  <si>
+    <t>JUAN FRANCISCO MEZA LOPEZ</t>
+  </si>
+  <si>
+    <t>1103220109</t>
+  </si>
+  <si>
+    <t>DIEGO ARMANDO WILCHEZ NOVOA</t>
+  </si>
+  <si>
     <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>73190652</t>
-  </si>
-  <si>
-    <t>JOSE LUIS BLANCO CABARCAS</t>
-  </si>
-  <si>
-    <t>1047432610</t>
-  </si>
-  <si>
-    <t>EDWIN RAFAEL MUÑOZ DE ANGEL</t>
-  </si>
-  <si>
-    <t>1052981975</t>
-  </si>
-  <si>
-    <t>FRANKY ALI RIOS MUÑOZ</t>
-  </si>
-  <si>
-    <t>1052992439</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL JIMENEZ MARQUEZ</t>
-  </si>
-  <si>
-    <t>1052968659</t>
-  </si>
-  <si>
-    <t>DIONISIO JOSE RIOS MUÑOZ</t>
-  </si>
-  <si>
-    <t>1052960660</t>
-  </si>
-  <si>
-    <t>RAFAEL OVIDIO RIOS MUÑOZ</t>
-  </si>
-  <si>
-    <t>1052946538</t>
-  </si>
-  <si>
-    <t>EVERTO MANUEL DE LAS OSSA ATENCIA</t>
-  </si>
-  <si>
-    <t>1101445961</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS TORRES ZUÑIGA</t>
-  </si>
-  <si>
-    <t>1052956555</t>
-  </si>
-  <si>
-    <t>JUAN FRANCISCO MEZA LOPEZ</t>
-  </si>
-  <si>
-    <t>1103220109</t>
-  </si>
-  <si>
-    <t>DIEGO ARMANDO WILCHEZ NOVOA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -178,7 +178,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -246,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83552552-A7C9-9CDE-A7A5-93C7949BF286}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9358DA59-B27B-1DF5-423D-580DA9F8143E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,28 +899,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA88458-A1AB-403C-B013-3DF3C0173364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A929F040-8AC9-4B6C-BCA9-F2EEEC27B331}">
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -933,7 +933,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -944,7 +944,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -955,7 +955,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -966,8 +966,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
@@ -982,8 +982,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -998,8 +998,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
@@ -1014,8 +1014,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1086,18 +1086,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>29509</v>
@@ -1109,15 +1109,15 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
@@ -1132,18 +1132,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>29509</v>
@@ -1155,15 +1155,15 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
@@ -1178,18 +1178,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>29509</v>
@@ -1201,15 +1201,15 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
@@ -1224,18 +1224,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
@@ -1247,15 +1247,15 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
@@ -1270,18 +1270,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1293,15 +1293,15 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
@@ -1316,18 +1316,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1339,18 +1339,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
@@ -1362,18 +1362,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
@@ -1385,18 +1385,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
@@ -1408,18 +1408,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
@@ -1431,18 +1431,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
         <v>29509</v>
@@ -1454,18 +1454,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
@@ -1477,18 +1477,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1500,18 +1500,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1523,18 +1523,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
@@ -1546,18 +1546,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="F37" s="24">
         <v>29509</v>
@@ -1569,7 +1569,7 @@
       <c r="I37" s="25"/>
       <c r="J37" s="26"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="32" t="s">
         <v>42</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="32" t="s">
         <v>41</v>
       </c>
